--- a/uploads/data/pycaret_results_meeting.xlsx
+++ b/uploads/data/pycaret_results_meeting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrcra\Dropbox\DJANGO\DJANGO-GENERIC\uploads\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F427BCC-CE1E-4370-9154-347315DA6447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE8DAA9-3D52-45D0-B59A-D92626AE2383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>run_id</t>
   </si>
@@ -84,61 +84,6 @@
   </si>
   <si>
     <t>c296525d-424b-44a8-b8b9-82f5aabd198d</t>
-  </si>
-  <si>
-    <t>./datasets/RED_ADA_RANKED_101.csv</t>
-  </si>
-  <si>
-    <t>XGBClassifier(base_score=None, booster='gbtree', callbacks=None,
-              colsample_bylevel=None, colsample_bynode=None,
-              colsample_bytree=None, early_stopping_rounds=None,
-              enable_categorical=False, eval_metric=None, feature_types=None,
-              gamma=None, gpu_id=None, grow_policy=None, importance_type=None,
-              interaction_constraints=None, learning_rate=None, max_bin=None,
-              max_cat_threshold=None, max_cat_to_onehot=None,
-              max_delta_step=None, max_depth=None, max_leaves=None,
-              min_child_weight=None, missing=nan, monotone_constraints=None,
-              n_estimators=100, n_jobs=-1, num_parallel_tree=None,
-              objective='binary:logistic', predictor=None, ...)</t>
-  </si>
-  <si>
-    <t>./datasets/RED_RAN_RANKED_101.csv</t>
-  </si>
-  <si>
-    <t>64d1ac85-2875-4802-91c9-1729136841a6</t>
-  </si>
-  <si>
-    <t>AdaBoostClassifier(algorithm='SAMME.R', base_estimator=None, learning_rate=1.0,
-                   n_estimators=50, random_state=3458)</t>
-  </si>
-  <si>
-    <t>36e8529d-5221-43c7-8653-f93847526115</t>
-  </si>
-  <si>
-    <t>GradientBoostingClassifier(ccp_alpha=0.0, criterion='friedman_mse', init=None,
-                           learning_rate=0.1, loss='log_loss', max_depth=3,
-                           max_features=None, max_leaf_nodes=None,
-                           min_impurity_decrease=0.0, min_samples_leaf=1,
-                           min_samples_split=2, min_weight_fraction_leaf=0.0,
-                           n_estimators=100, n_iter_no_change=None,
-                           random_state=5667, subsample=1.0, tol=0.0001,
-                           validation_fraction=0.1, verbose=0,
-                           warm_start=False)</t>
-  </si>
-  <si>
-    <t>162e9a66-f4c4-49b6-bedb-579d01907530</t>
-  </si>
-  <si>
-    <t>ExtraTreesClassifier(bootstrap=False, ccp_alpha=0.0, class_weight=None,
-                     criterion='gini', max_depth=None, max_features='sqrt',
-                     max_leaf_nodes=None, max_samples=None,
-                     min_impurity_decrease=0.0, min_samples_leaf=1,
-                     min_samples_split=2, min_weight_fraction_leaf=0.0,
-                     n_estimators=100, n_jobs=-1, oob_score=False,
-                     random_state=1322, verbose=0, warm_start=False)</t>
-  </si>
-  <si>
-    <t>728448a3-4600-4125-b851-d7800f8f45f1</t>
   </si>
   <si>
     <t>model_used</t>
@@ -644,10 +589,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="15" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1010,36 +954,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E409"/>
+  <dimension ref="A1:E410"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1047,7 +991,7 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>44936.220833333333</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1064,7 +1008,7 @@
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>44936.225694444445</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1081,7 +1025,7 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>44936.231944444444</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1098,7 +1042,7 @@
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>44936.345138888886</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1115,7 +1059,7 @@
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>44936.349305555559</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1128,89 +1072,413 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A406" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B406" s="3">
-        <v>44955.282848877316</v>
-      </c>
-      <c r="C406" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D406" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E406" s="1">
-        <v>0.81810000000000005</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A407" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B407" s="3">
-        <v>44955.283708148148</v>
-      </c>
-      <c r="C407" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D407" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E407" s="1">
-        <v>0.71589999999999998</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A408" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B408" s="3">
-        <v>44955.283877939815</v>
-      </c>
-      <c r="C408" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D408" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E408" s="1">
-        <v>0.83589999999999998</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A409" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B409" s="3">
-        <v>44955.284639907404</v>
-      </c>
-      <c r="C409" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D409" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E409" s="1">
-        <v>0.69120000000000004</v>
-      </c>
-    </row>
+    <row r="7" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="229" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="231" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="232" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="233" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="234" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="235" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="236" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="237" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="238" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="239" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="240" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="241" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="242" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="243" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="244" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="245" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="246" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="247" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="248" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="249" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="250" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="251" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="252" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="253" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="254" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="255" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="256" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="257" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="258" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="259" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="260" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="261" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="262" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="263" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="264" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="265" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="266" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="267" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="268" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="269" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="270" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="271" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="272" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="273" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="274" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="275" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="276" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="277" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="278" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="279" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="280" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="281" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="282" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="283" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="284" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="285" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="286" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="287" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="288" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="289" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="290" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="291" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="292" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="293" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="294" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="295" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="296" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="297" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="298" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="299" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="300" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="301" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="302" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="303" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="304" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="305" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="306" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="307" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="308" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="309" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="310" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="311" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="312" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="313" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="314" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="315" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="316" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="317" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="318" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="319" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="320" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="321" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="322" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="323" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="324" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="325" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="326" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="327" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="328" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="329" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="330" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="331" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="332" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="333" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="334" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="335" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="336" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="337" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="338" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="339" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="340" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="341" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="342" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="343" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="344" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="345" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="346" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="347" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="348" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="349" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="350" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="351" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="352" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="353" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="354" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="355" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="356" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="357" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="358" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="359" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="360" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="361" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="362" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="363" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="364" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="365" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="366" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="367" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="368" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="369" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="370" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="371" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="372" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="373" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="374" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="375" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="376" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="377" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="378" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="379" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="380" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="381" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="382" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="383" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="384" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="385" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="386" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="387" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="388" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="389" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="390" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="391" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="392" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="393" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="394" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="395" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="396" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="397" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="398" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="399" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="400" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="401" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="402" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="403" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="404" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="405" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="406" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="407" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="408" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="409" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="410" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E163">
-    <sortCondition ref="B1:B163"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E6">
+    <sortCondition ref="B1:B6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
